--- a/data/sckjc_spring2025.xlsx
+++ b/data/sckjc_spring2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sblanche/Desktop/GitHub/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB08EA8A-1EF4-7641-A1B7-7C0FCC4282AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,18 +83,12 @@
     <t>Sparsentan improves glomerular hemodynamics, cell functions, and tissue repair in a mouse model of FSGS</t>
   </si>
   <si>
-    <t>JCL Insight 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/35522041/ </t>
   </si>
   <si>
     <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/38996810/ </t>
   </si>
   <si>
-    <t xml:space="preserve">https://insight.jci.org/articles/view/177775 </t>
-  </si>
-  <si>
     <t xml:space="preserve">April 1st </t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>June 3rd</t>
+  </si>
+  <si>
+    <t>JCI Insight 2024</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/39226116/</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -586,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -594,16 +594,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -624,8 +624,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{FBBB6B41-62E5-7E48-9545-71226C51B9CA}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6FFE0D09-2418-9F4F-B05A-A7FEE033AAE8}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{F22D9594-387E-AE4F-8284-A8E0D669BDD5}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F22D9594-387E-AE4F-8284-A8E0D669BDD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sckjc_spring2025.xlsx
+++ b/data/sckjc_spring2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sblanche/Desktop/GitHub/website/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34002DC5-6F1E-4A93-AF4C-938CA799D010}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17260" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/39226116/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1OlJN3c3AWP0xq2cHrZzeiMyJvNzI52f1?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -521,21 +524,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E77ECA4-F8F8-4976-B390-B089FADB103E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.83203125" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="85.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -574,8 +577,14 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -592,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -609,16 +618,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
   </sheetData>

--- a/data/sckjc_spring2025.xlsx
+++ b/data/sckjc_spring2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34002DC5-6F1E-4A93-AF4C-938CA799D010}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3BD4CB-492B-49B9-BD65-CD909F549E35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1OlJN3c3AWP0xq2cHrZzeiMyJvNzI52f1?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1lVcm22QgCQLDe38oX42NwC23OcXUGT3H?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E77ECA4-F8F8-4976-B390-B089FADB103E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +602,12 @@
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/sckjc_spring2025.xlsx
+++ b/data/sckjc_spring2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3BD4CB-492B-49B9-BD65-CD909F549E35}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2772EA58-A21C-4FB9-9A1E-B35FD5C36782}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>May 6th</t>
   </si>
   <si>
-    <t>June 3rd</t>
-  </si>
-  <si>
     <t>JCI Insight 2024</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1lVcm22QgCQLDe38oX42NwC23OcXUGT3H?usp=sharing</t>
+  </si>
+  <si>
+    <t>July 1st</t>
   </si>
 </sst>
 </file>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E77ECA4-F8F8-4976-B390-B089FADB103E}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,21 +607,21 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>

--- a/data/sckjc_spring2025.xlsx
+++ b/data/sckjc_spring2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fff675f9af20735c/Desktop/mywebsite/website/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2772EA58-A21C-4FB9-9A1E-B35FD5C36782}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E376B743-FB3D-D24B-BF53-35DCA2144DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F8E65DE-DAA1-4F58-89A1-34113E6EA834}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D187901-E6A1-4676-A790-E8B1B18E73F2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>July 1st</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/19sxwLPrL1DVrLdXElDFR_--lA0N4Mn_C?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +542,7 @@
     <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,6 +629,12 @@
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
